--- a/Documentation/DatabaseSchema.xlsx
+++ b/Documentation/DatabaseSchema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Project Git\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83EF1A9-B15D-4E7D-8F74-2F780C4F2AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665766FC-710F-4EF3-8DD1-A9AC1CDF8221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C4B8F114-ECC6-4180-8B64-76D85124750E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C4B8F114-ECC6-4180-8B64-76D85124750E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="188">
   <si>
     <t>NULL</t>
   </si>
@@ -179,9 +179,6 @@
     <t>ordered_date</t>
   </si>
   <si>
-    <t>scheduled_date</t>
-  </si>
-  <si>
     <t>service_address</t>
   </si>
   <si>
@@ -374,9 +371,6 @@
     <t>Service_Table</t>
   </si>
   <si>
-    <t>MUL</t>
-  </si>
-  <si>
     <t>PRIM</t>
   </si>
   <si>
@@ -494,9 +488,6 @@
     <t>P/no21 Soham, Satara</t>
   </si>
   <si>
-    <t>SERVICES_BOOKING_TABLE</t>
-  </si>
-  <si>
     <t>service_vendor_id</t>
   </si>
   <si>
@@ -509,9 +500,6 @@
     <t>booking_service_cost</t>
   </si>
   <si>
-    <t>booking_schedule_time</t>
-  </si>
-  <si>
     <t>time_hrs</t>
   </si>
   <si>
@@ -554,24 +542,6 @@
     <t>Boking_id</t>
   </si>
   <si>
-    <t>SERVICES_VENDER_TABLE</t>
-  </si>
-  <si>
-    <t>Service_Vendor_Table</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>varchar(25)</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>booking_vendor_id</t>
-  </si>
-  <si>
     <t>rutjafirke</t>
   </si>
   <si>
@@ -606,6 +576,27 @@
   </si>
   <si>
     <t>sidddheshsutar</t>
+  </si>
+  <si>
+    <t>customer_address</t>
+  </si>
+  <si>
+    <t>vendor_address</t>
+  </si>
+  <si>
+    <t>mul</t>
+  </si>
+  <si>
+    <t>booking_status</t>
+  </si>
+  <si>
+    <t>booking_service_address</t>
+  </si>
+  <si>
+    <t>booking_schedule_date_time</t>
+  </si>
+  <si>
+    <t>ORDER_SERVICE_TABLE</t>
   </si>
 </sst>
 </file>
@@ -731,7 +722,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -813,12 +804,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -861,6 +863,14 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -885,12 +895,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1208,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6CA6FB-DC28-47EF-BB26-956A5A327577}">
-  <dimension ref="A2:P44"/>
+  <dimension ref="A2:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1220,29 +1227,29 @@
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="11" max="11" width="24.21875" customWidth="1"/>
+    <col min="11" max="11" width="28.88671875" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" customWidth="1"/>
     <col min="13" max="13" width="12.77734375" customWidth="1"/>
     <col min="16" max="16" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="K2" s="36" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="K2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
     </row>
     <row r="3" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
@@ -1284,21 +1291,21 @@
     </row>
     <row r="4" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="15" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>9</v>
@@ -1470,7 +1477,7 @@
     </row>
     <row r="11" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>10</v>
@@ -1482,7 +1489,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="K11" s="15" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>10</v>
@@ -1523,7 +1530,7 @@
     </row>
     <row r="13" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>9</v>
@@ -1535,7 +1542,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="K13" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>9</v>
@@ -1558,24 +1565,24 @@
       <c r="P14" s="15"/>
     </row>
     <row r="16" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B16" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="K16" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-    </row>
-    <row r="17" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="K16" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="25" t="s">
         <v>2</v>
       </c>
@@ -1613,7 +1620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
         <v>32</v>
       </c>
@@ -1624,14 +1631,14 @@
         <v>21</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L18" s="35" t="s">
         <v>9</v>
@@ -1640,14 +1647,14 @@
         <v>21</v>
       </c>
       <c r="N18" s="35" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O18" s="34"/>
       <c r="P18" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
         <v>33</v>
       </c>
@@ -1661,7 +1668,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="K19" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L19" s="15" t="s">
         <v>9</v>
@@ -1670,12 +1677,12 @@
         <v>21</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O19" s="15"/>
       <c r="P19" s="33"/>
     </row>
-    <row r="20" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
         <v>36</v>
       </c>
@@ -1689,7 +1696,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="K20" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L20" s="15" t="s">
         <v>9</v>
@@ -1698,14 +1705,14 @@
         <v>21</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
     </row>
-    <row r="21" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>34</v>
@@ -1717,23 +1724,19 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="K21" s="15" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" s="15" t="s">
-        <v>141</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
     </row>
-    <row r="22" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>34</v>
@@ -1745,7 +1748,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="K22" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L22" s="15" t="s">
         <v>9</v>
@@ -1757,24 +1760,20 @@
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
     </row>
-    <row r="23" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>21</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="15" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="J23" s="16"/>
       <c r="K23" s="15" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>34</v>
@@ -1786,203 +1785,189 @@
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
     </row>
-    <row r="24" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="J24" s="16"/>
-      <c r="K24" s="15"/>
+      <c r="K24" s="15" t="s">
+        <v>185</v>
+      </c>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
     </row>
-    <row r="27" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B27" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-    </row>
-    <row r="28" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B28" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K28" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-    </row>
-    <row r="29" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>141</v>
-      </c>
+    <row r="25" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K25" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K26" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+    </row>
+    <row r="27" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="K27" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="K28" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="33"/>
-      <c r="K29" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="M29" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N29" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="O29" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="P29" s="25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>141</v>
-      </c>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
-      <c r="K30" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>9</v>
-      </c>
+      <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-      <c r="N30" s="15" t="s">
-        <v>7</v>
-      </c>
+      <c r="N30" s="15"/>
       <c r="O30" s="15"/>
-      <c r="P30" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
-      <c r="K31" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L31" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M31" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-    </row>
-    <row r="32" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+    </row>
+    <row r="32" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="6"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
-      <c r="K32" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L32" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M32" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
+      <c r="K32" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
     </row>
     <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
-      <c r="K33" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L33" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="M33" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
+      <c r="K33" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="25" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
       <c r="K34" s="15" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
+      <c r="N34" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
+      <c r="P34" s="15" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="26"/>
@@ -1992,13 +1977,17 @@
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
       <c r="K35" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="O35" s="15"/>
       <c r="P35" s="15"/>
     </row>
@@ -2009,22 +1998,40 @@
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
+      <c r="K36" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
     </row>
     <row r="37" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="K37" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M37" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
     </row>
     <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="25" t="s">
@@ -2045,12 +2052,16 @@
       <c r="G38" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
+      <c r="K38" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
     </row>
     <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="15" t="s">
@@ -2069,10 +2080,16 @@
       <c r="G39" s="15" t="s">
         <v>8</v>
       </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
     </row>
     <row r="40" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>9</v>
@@ -2088,7 +2105,7 @@
     </row>
     <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>9</v>
@@ -2099,45 +2116,39 @@
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
     </row>
     <row r="42" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
     </row>
     <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B43" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B44" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
@@ -2149,7 +2160,7 @@
     <mergeCell ref="K2:P2"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="K16:P16"/>
-    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="K32:P32"/>
     <mergeCell ref="B27:G27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2162,8 +2173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4321461-B0CA-4C44-B572-5F3EF35A632B}">
   <dimension ref="A3:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2181,19 +2192,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="B3" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>11</v>
@@ -2225,28 +2236,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F5" s="2">
         <v>7757981247</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
@@ -2254,28 +2265,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F6" s="2">
         <v>895647325</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
@@ -2283,28 +2294,28 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F7" s="2">
         <v>8965742362</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
@@ -2312,28 +2323,28 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F8" s="2">
         <v>987456324</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
@@ -2341,28 +2352,28 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F9" s="2">
         <v>8889988566</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
@@ -2370,45 +2381,45 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F10" s="2">
         <v>8755694125</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="B15" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>24</v>
@@ -2443,28 +2454,28 @@
         <v>101</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F17" s="2">
         <v>7896542355</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="I17" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -2473,28 +2484,28 @@
         <v>102</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F18" s="2">
         <v>9874563210</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K18" s="2"/>
     </row>
@@ -2503,28 +2514,28 @@
         <v>103</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F19" s="2">
         <v>789654123</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -2533,28 +2544,28 @@
         <v>104</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F20" s="2">
         <v>8966632547</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="I20" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K20" s="2"/>
     </row>
@@ -2563,28 +2574,28 @@
         <v>105</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F21" s="2">
         <v>896574123</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K21" s="2"/>
     </row>
@@ -2593,40 +2604,40 @@
         <v>106</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F22" s="2">
         <v>7859641236</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K22" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="46"/>
+      <c r="B26" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="23"/>
     </row>
     <row r="27" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2640,12 +2651,14 @@
         <v>36</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="G27" s="31"/>
+        <v>155</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="H27" s="22"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
@@ -2653,7 +2666,7 @@
         <v>201</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D28" s="2">
         <v>3000</v>
@@ -2662,7 +2675,7 @@
         <v>0.05</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G28" s="19"/>
       <c r="H28" s="6"/>
@@ -2672,7 +2685,7 @@
         <v>202</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D29" s="2">
         <v>2000</v>
@@ -2681,7 +2694,7 @@
         <v>0.03</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="6"/>
@@ -2691,7 +2704,7 @@
         <v>203</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D30" s="2">
         <v>1000</v>
@@ -2700,7 +2713,7 @@
         <v>0.02</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="6"/>
@@ -2710,7 +2723,7 @@
         <v>204</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D31" s="2">
         <v>1000</v>
@@ -2719,7 +2732,7 @@
         <v>0.05</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="6"/>
@@ -2729,7 +2742,7 @@
         <v>205</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D32" s="2">
         <v>4000</v>
@@ -2738,7 +2751,7 @@
         <v>0.03</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="6"/>
@@ -2749,7 +2762,7 @@
         <v>206</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D33" s="4">
         <v>500</v>
@@ -2758,7 +2771,7 @@
         <v>0.04</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="6"/>
@@ -2769,7 +2782,7 @@
         <v>207</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D34" s="2">
         <v>1000</v>
@@ -2778,7 +2791,7 @@
         <v>0.06</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G34" s="19"/>
       <c r="H34" s="6"/>
@@ -2789,7 +2802,7 @@
         <v>208</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D35" s="2">
         <v>4000</v>
@@ -2798,7 +2811,7 @@
         <v>0.05</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G35" s="12"/>
     </row>
@@ -2808,7 +2821,7 @@
         <v>209</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D36" s="8">
         <v>5000</v>
@@ -2817,7 +2830,7 @@
         <v>0.02</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G36" s="12"/>
     </row>
@@ -2827,7 +2840,7 @@
         <v>210</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D37" s="8">
         <v>10000</v>
@@ -2836,7 +2849,7 @@
         <v>0.06</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G37" s="12"/>
     </row>
@@ -2846,7 +2859,7 @@
         <v>211</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8">
         <v>20000</v>
@@ -2855,207 +2868,133 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="G38" s="44"/>
+        <v>156</v>
+      </c>
+      <c r="G38" s="36"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G39" s="45"/>
+      <c r="G39" s="37"/>
     </row>
     <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
       <c r="F41" s="32"/>
     </row>
     <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>177</v>
-      </c>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="2">
-        <v>201</v>
-      </c>
-      <c r="C43" s="2">
-        <v>101</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="19"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="2">
-        <v>202</v>
-      </c>
-      <c r="C44" s="2">
-        <v>101</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="2">
-        <v>203</v>
-      </c>
-      <c r="C45" s="2">
-        <v>102</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="12"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="2">
-        <v>204</v>
-      </c>
-      <c r="C46" s="2">
-        <v>102</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="12"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="2">
-        <v>201</v>
-      </c>
-      <c r="C47" s="2">
-        <v>103</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="12"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="2">
-        <v>202</v>
-      </c>
-      <c r="C48" s="4">
-        <v>103</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="12"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="5">
-        <v>205</v>
-      </c>
-      <c r="C49" s="5">
-        <v>104</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="2"/>
       <c r="E49" s="30"/>
       <c r="F49" s="19"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="5">
-        <v>206</v>
-      </c>
-      <c r="C50" s="5">
-        <v>105</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="2"/>
       <c r="E50" s="30"/>
       <c r="F50" s="12"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="5">
-        <v>203</v>
-      </c>
-      <c r="C51" s="5">
-        <v>105</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="2"/>
       <c r="E51" s="30"/>
       <c r="F51" s="12"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="5">
-        <v>203</v>
-      </c>
-      <c r="C52" s="5">
-        <v>106</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="2"/>
       <c r="E52" s="30"/>
       <c r="F52" s="12"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="5">
-        <v>211</v>
-      </c>
-      <c r="C53" s="5">
-        <v>106</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="2"/>
       <c r="E53" s="30"/>
       <c r="F53" s="12"/>
     </row>
     <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
+      <c r="B58" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
       <c r="G58" s="21"/>
     </row>
     <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="15"/>
       <c r="B59" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C59" s="28" t="s">
         <v>32</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F59" s="28" t="s">
         <v>36</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -3183,15 +3122,15 @@
     </row>
     <row r="68" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="26"/>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="41"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="45"/>
       <c r="I68" s="15"/>
       <c r="J68" s="20"/>
     </row>
@@ -3204,19 +3143,19 @@
         <v>40</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F69" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G69" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H69" s="28" t="s">
         <v>49</v>
-      </c>
-      <c r="H69" s="28" t="s">
-        <v>50</v>
       </c>
       <c r="I69" s="15"/>
       <c r="J69" s="6"/>
@@ -3233,13 +3172,13 @@
         <v>44812</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F70" s="24">
         <v>44813</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H70" s="9">
         <v>1</v>
@@ -3259,13 +3198,13 @@
         <v>44812</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F71" s="24">
         <v>44814</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H71" s="9">
         <v>2</v>
@@ -3285,13 +3224,13 @@
         <v>44843</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F72" s="24">
         <v>44844</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H72" s="9">
         <v>3</v>
@@ -3331,15 +3270,15 @@
       <c r="H75" s="6"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
     </row>
     <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B78" s="28" t="s">
@@ -3355,10 +3294,10 @@
         <v>45</v>
       </c>
       <c r="F78" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G78" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H78" s="20"/>
     </row>
@@ -3370,10 +3309,10 @@
         <v>44813</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F79" s="9">
         <v>1</v>
@@ -3391,10 +3330,10 @@
         <v>44814</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F80" s="9">
         <v>2</v>
@@ -3412,10 +3351,10 @@
         <v>44783</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F81" s="9">
         <v>3</v>

--- a/Documentation/DatabaseSchema.xlsx
+++ b/Documentation/DatabaseSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Project Git\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665766FC-710F-4EF3-8DD1-A9AC1CDF8221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B1F4F1-280A-4CB4-8B9A-6F64090EE9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C4B8F114-ECC6-4180-8B64-76D85124750E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="190">
   <si>
     <t>NULL</t>
   </si>
@@ -597,6 +597,12 @@
   </si>
   <si>
     <t>ORDER_SERVICE_TABLE</t>
+  </si>
+  <si>
+    <t>blob</t>
+  </si>
+  <si>
+    <t>booking_order_id</t>
   </si>
 </sst>
 </file>
@@ -684,7 +690,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -718,6 +724,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,7 +862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -835,7 +877,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -860,15 +901,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -895,11 +949,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -907,6 +959,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1215,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6CA6FB-DC28-47EF-BB26-956A5A327577}">
-  <dimension ref="A2:Q44"/>
+  <dimension ref="A2:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1233,903 +1290,908 @@
     <col min="16" max="16" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="40" t="s">
+    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="K2" s="40" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="K2" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-    </row>
-    <row r="3" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="39"/>
+      <c r="B4" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15" t="s">
+      <c r="M4" s="41"/>
+      <c r="N4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15" t="s">
+      <c r="O4" s="41"/>
+      <c r="P4" s="40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="K5" s="15" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="K5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-    </row>
-    <row r="6" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="K6" s="15" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="K6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-    </row>
-    <row r="7" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="K7" s="15" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="K7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-    </row>
-    <row r="8" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="K8" s="15" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="K8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="K9" s="15" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="K9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-    </row>
-    <row r="10" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="15" t="s">
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="K10" s="15" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="K10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-    </row>
-    <row r="11" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="15" t="s">
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="K11" s="15" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="K11" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-    </row>
-    <row r="12" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B12" s="15" t="s">
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="I12" s="27"/>
-      <c r="K12" s="15" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="I12" s="26"/>
+      <c r="K12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-    </row>
-    <row r="13" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="s">
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="K13" s="15" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="K13" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-    </row>
-    <row r="14" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="K14" s="15" t="s">
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-    </row>
-    <row r="16" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B16" s="40" t="s">
+      <c r="L14" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+    </row>
+    <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B16" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="K16" s="40" t="s">
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="K16" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
     </row>
     <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="M17" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="N17" s="25" t="s">
+      <c r="N17" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="25" t="s">
+      <c r="O17" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="25" t="s">
+      <c r="P17" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15" t="s">
+      <c r="F18" s="43"/>
+      <c r="G18" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="35" t="s">
+      <c r="K18" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="L18" s="35" t="s">
+      <c r="L18" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="M18" s="35" t="s">
+      <c r="M18" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="35" t="s">
+      <c r="N18" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="O18" s="34"/>
-      <c r="P18" s="35" t="s">
+      <c r="O18" s="59"/>
+      <c r="P18" s="58" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="K19" s="15" t="s">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="K19" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="M19" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="N19" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="O19" s="15"/>
-      <c r="P19" s="33"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
     </row>
     <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="K20" s="15" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="K20" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="15" t="s">
+      <c r="M20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="N20" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
     </row>
     <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="K21" s="15" t="s">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="K21" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="L21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
     </row>
     <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="K22" s="15" t="s">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="K22" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M22" s="15" t="s">
+      <c r="M22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
     </row>
     <row r="23" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="15" t="s">
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="M23" s="15" t="s">
+      <c r="M23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
     </row>
     <row r="24" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="J24" s="16"/>
-      <c r="K24" s="15" t="s">
+      <c r="J24" s="15"/>
+      <c r="K24" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
     </row>
     <row r="25" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="K25" s="48" t="s">
+      <c r="K25" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="K26" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+    </row>
+    <row r="27" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="K27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+    </row>
+    <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="B28" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="K28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="36"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="36"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+    </row>
+    <row r="32" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="B32" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="K32" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="K33" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="K34" s="44" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="K26" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="L26" s="15" t="s">
+      <c r="L34" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="K35" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="L35" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K36" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+    </row>
+    <row r="37" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="47"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="K37" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="47"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="K38" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L38" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="M26" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-    </row>
-    <row r="27" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="K27" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M27" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-    </row>
-    <row r="28" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="K28" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="M28" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="33"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-    </row>
-    <row r="30" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-    </row>
-    <row r="31" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-    </row>
-    <row r="32" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="6"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="K32" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-    </row>
-    <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="K33" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="M33" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N33" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="P33" s="25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="K34" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L34" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="K35" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M35" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="K36" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L36" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M36" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-    </row>
-    <row r="37" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B37" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="K37" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="M37" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-    </row>
-    <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B38" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="L38" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
     </row>
     <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B39" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
     </row>
     <row r="40" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
     </row>
     <row r="42" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -2138,20 +2200,40 @@
       <c r="P42" s="1"/>
     </row>
     <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
     </row>
     <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2161,7 +2243,7 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="K16:P16"/>
     <mergeCell ref="K32:P32"/>
-    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2173,7 +2255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4321461-B0CA-4C44-B572-5F3EF35A632B}">
   <dimension ref="A3:K83"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -2192,42 +2274,42 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="27" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2406,46 +2488,46 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="21"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="J16" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="28" t="s">
+      <c r="K16" s="27" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2630,36 +2712,36 @@
       <c r="K22" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="23"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="22"/>
     </row>
     <row r="27" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="22"/>
+      <c r="H27" s="21"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
@@ -2671,13 +2753,13 @@
       <c r="D28" s="2">
         <v>3000</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="28">
         <v>0.05</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="G28" s="19"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
@@ -2690,7 +2772,7 @@
       <c r="D29" s="2">
         <v>2000</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="28">
         <v>0.03</v>
       </c>
       <c r="F29" s="12" t="s">
@@ -2709,7 +2791,7 @@
       <c r="D30" s="2">
         <v>1000</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="28">
         <v>0.02</v>
       </c>
       <c r="F30" s="12" t="s">
@@ -2728,7 +2810,7 @@
       <c r="D31" s="2">
         <v>1000</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="28">
         <v>0.05</v>
       </c>
       <c r="F31" s="12" t="s">
@@ -2747,7 +2829,7 @@
       <c r="D32" s="2">
         <v>4000</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="28">
         <v>0.03</v>
       </c>
       <c r="F32" s="12" t="s">
@@ -2767,7 +2849,7 @@
       <c r="D33" s="4">
         <v>500</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="28">
         <v>0.04</v>
       </c>
       <c r="F33" s="12" t="s">
@@ -2787,13 +2869,13 @@
       <c r="D34" s="2">
         <v>1000</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="29">
         <v>0.06</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="G34" s="19"/>
+      <c r="G34" s="18"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -2807,7 +2889,7 @@
       <c r="D35" s="2">
         <v>4000</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="29">
         <v>0.05</v>
       </c>
       <c r="F35" s="12" t="s">
@@ -2826,7 +2908,7 @@
       <c r="D36" s="8">
         <v>5000</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="29">
         <v>0.02</v>
       </c>
       <c r="F36" s="12" t="s">
@@ -2845,7 +2927,7 @@
       <c r="D37" s="8">
         <v>10000</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="29">
         <v>0.06</v>
       </c>
       <c r="F37" s="12" t="s">
@@ -2864,37 +2946,37 @@
       <c r="D38" s="8">
         <v>20000</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="29">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="G38" s="36"/>
+      <c r="G38" s="32"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G39" s="37"/>
+      <c r="G39" s="33"/>
     </row>
     <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="32"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="31"/>
     </row>
     <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="19"/>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
@@ -2935,65 +3017,65 @@
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="19"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="30"/>
+      <c r="E50" s="29"/>
       <c r="F50" s="12"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="30"/>
+      <c r="E51" s="29"/>
       <c r="F51" s="12"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="30"/>
+      <c r="E52" s="29"/>
       <c r="F52" s="12"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="30"/>
+      <c r="E53" s="29"/>
       <c r="F53" s="12"/>
     </row>
     <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="21"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="20"/>
     </row>
     <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
-      <c r="B59" s="28" t="s">
+      <c r="A59" s="14"/>
+      <c r="B59" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F59" s="28" t="s">
+      <c r="F59" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G59" s="28" t="s">
+      <c r="G59" s="27" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3001,19 +3083,19 @@
       <c r="B60" s="2">
         <v>1</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C60" s="17">
         <v>201</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="17">
         <v>1</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="17">
         <v>103</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="17">
         <v>3000</v>
       </c>
-      <c r="G60" s="19">
+      <c r="G60" s="18">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -3121,43 +3203,43 @@
       <c r="A67" s="6"/>
     </row>
     <row r="68" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="26"/>
-      <c r="B68" s="44" t="s">
+      <c r="A68" s="25"/>
+      <c r="B68" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="20"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="55"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="19"/>
     </row>
     <row r="69" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
-      <c r="B69" s="28" t="s">
+      <c r="B69" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D69" s="28" t="s">
+      <c r="D69" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="E69" s="28" t="s">
+      <c r="E69" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="F69" s="28" t="s">
+      <c r="F69" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="G69" s="28" t="s">
+      <c r="G69" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H69" s="28" t="s">
+      <c r="H69" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I69" s="15"/>
+      <c r="I69" s="14"/>
       <c r="J69" s="6"/>
     </row>
     <row r="70" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -3174,16 +3256,16 @@
       <c r="E70" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F70" s="24">
+      <c r="F70" s="23">
         <v>44813</v>
       </c>
-      <c r="G70" s="24" t="s">
+      <c r="G70" s="23" t="s">
         <v>148</v>
       </c>
       <c r="H70" s="9">
         <v>1</v>
       </c>
-      <c r="I70" s="15"/>
+      <c r="I70" s="14"/>
       <c r="J70" s="6"/>
     </row>
     <row r="71" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -3200,16 +3282,16 @@
       <c r="E71" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F71" s="24">
+      <c r="F71" s="23">
         <v>44814</v>
       </c>
-      <c r="G71" s="24" t="s">
+      <c r="G71" s="23" t="s">
         <v>149</v>
       </c>
       <c r="H71" s="9">
         <v>2</v>
       </c>
-      <c r="I71" s="15"/>
+      <c r="I71" s="14"/>
       <c r="J71" s="6"/>
     </row>
     <row r="72" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -3226,7 +3308,7 @@
       <c r="E72" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F72" s="24">
+      <c r="F72" s="23">
         <v>44844</v>
       </c>
       <c r="G72" s="2" t="s">
@@ -3235,7 +3317,7 @@
       <c r="H72" s="9">
         <v>3</v>
       </c>
-      <c r="I72" s="15"/>
+      <c r="I72" s="14"/>
       <c r="J72" s="6"/>
     </row>
     <row r="73" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -3247,7 +3329,7 @@
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
-      <c r="I73" s="15"/>
+      <c r="I73" s="14"/>
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -3270,36 +3352,36 @@
       <c r="H75" s="6"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="42" t="s">
+      <c r="B77" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="52"/>
+      <c r="E77" s="52"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="52"/>
     </row>
     <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D78" s="28" t="s">
+      <c r="D78" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E78" s="28" t="s">
+      <c r="E78" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F78" s="28" t="s">
+      <c r="F78" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G78" s="28" t="s">
+      <c r="G78" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H78" s="20"/>
+      <c r="H78" s="19"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B79" s="2">
